--- a/Gantt Project Planner.xlsx
+++ b/Gantt Project Planner.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lin\Dropbox\My PC (STU-LOAN-23831)\Desktop\hons final proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lin\Dropbox\My PC (STU-LOAN-23831)\Desktop\HONSSeniorProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A187157E-ABA1-4A4C-988D-BF1CC988AE4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CC9F01-9412-46FE-BB2F-F1EDA15A5FB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,6 +559,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -606,9 +609,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1045,11 +1045,11 @@
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1057,66 +1057,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="32"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="34"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="35"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="35" t="s">
+      <c r="AA2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="38"/>
       <c r="AH2" s="20"/>
-      <c r="AI2" s="22" t="s">
+      <c r="AI2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1143,12 +1143,12 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1347,7 +1347,7 @@
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="7">
@@ -1363,7 +1363,7 @@
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="7">

--- a/Gantt Project Planner.xlsx
+++ b/Gantt Project Planner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lin\Dropbox\My PC (STU-LOAN-23831)\Desktop\HONSSeniorProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CC9F01-9412-46FE-BB2F-F1EDA15A5FB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9416DFB-377B-44F1-941E-13D9ADB5772A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="ActualBeyond">PeriodInActual*('Project Planner'!$E1&gt;0)</definedName>
     <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
     <definedName name="PercentCompleteBeyond">('Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1)*('Project Planner'!$E1&gt;0))*(('Project Planner'!A$4&lt;(INT('Project Planner'!$E1+'Project Planner'!$F1*'Project Planner'!$G1)))+('Project Planner'!A$4='Project Planner'!$E1))*('Project Planner'!$G1&gt;0)</definedName>
-    <definedName name="period_selected">'Project Planner'!$H$2</definedName>
+    <definedName name="period_selected">'Project Planner'!#REF!</definedName>
     <definedName name="PeriodInActual">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1-1)</definedName>
     <definedName name="PeriodInPlan">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$C1,'Project Planner'!$C1+'Project Planner'!$D1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*('Project Planner'!$C1&gt;0)</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <r>
       <rPr>
@@ -120,9 +120,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Period Highlight:</t>
-  </si>
-  <si>
     <t>PLAN START</t>
   </si>
   <si>
@@ -199,13 +196,22 @@
   </si>
   <si>
     <t>Paper and bug fixing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Fall Semester</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -305,8 +311,23 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="7" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,8 +369,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -408,15 +441,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color theme="0"/>
       </left>
@@ -492,7 +516,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -508,21 +532,6 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -538,9 +547,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="1" xfId="13">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,56 +565,104 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="12" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1021,9 +1075,7 @@
   </sheetPr>
   <dimension ref="B1:BO21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1031,124 +1083,140 @@
     <col min="2" max="2" width="55.125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
-    <col min="8" max="27" width="2.75" style="1"/>
+    <col min="8" max="9" width="2.75" style="1"/>
+    <col min="10" max="10" width="2.75" style="1" customWidth="1"/>
+    <col min="11" max="12" width="2.75" style="1"/>
+    <col min="13" max="13" width="2.75" style="1" customWidth="1"/>
+    <col min="14" max="27" width="2.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="44"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+    </row>
+    <row r="3" spans="2:67" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="5" t="s">
+      <c r="C3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="15">
-        <v>1</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-    </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="F3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="G3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
+      <c r="H3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1331,258 +1399,258 @@
       </c>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="37">
+        <v>1</v>
+      </c>
+      <c r="D5" s="37">
+        <v>3</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C6" s="37">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D6" s="37">
+        <v>4</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="37">
+        <v>2</v>
+      </c>
+      <c r="D7" s="37">
         <v>3</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8">
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="37">
+        <v>4</v>
+      </c>
+      <c r="D8" s="37">
+        <v>2</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C9" s="37">
+        <v>6</v>
+      </c>
+      <c r="D9" s="37">
         <v>4</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8">
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="37">
+        <v>9</v>
+      </c>
+      <c r="D10" s="37">
+        <v>3</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="37">
+        <v>12</v>
+      </c>
+      <c r="D11" s="37">
+        <v>4</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="37">
+        <v>11</v>
+      </c>
+      <c r="D12" s="37">
+        <v>3</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C13" s="37">
+        <v>14</v>
+      </c>
+      <c r="D13" s="37">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="37">
+        <v>15</v>
+      </c>
+      <c r="D14" s="37">
+        <v>5</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="37">
+        <v>16</v>
+      </c>
+      <c r="D15" s="37">
+        <v>2</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="33">
+        <v>20</v>
+      </c>
+      <c r="D16" s="34">
         <v>3</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8">
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="7">
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="34">
+        <v>22</v>
+      </c>
+      <c r="D17" s="34">
+        <v>8</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="34">
+        <v>28</v>
+      </c>
+      <c r="D18" s="34">
+        <v>3</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="34">
+        <v>32</v>
+      </c>
+      <c r="D19" s="34">
         <v>4</v>
       </c>
-      <c r="D8" s="7">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8">
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7">
-        <v>4</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="7">
-        <v>9</v>
-      </c>
-      <c r="D10" s="7">
-        <v>3</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="7">
-        <v>12</v>
-      </c>
-      <c r="D11" s="7">
-        <v>4</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="7">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="7">
-        <v>14</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="7">
-        <v>15</v>
-      </c>
-      <c r="D14" s="7">
-        <v>5</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="7">
-        <v>16</v>
-      </c>
-      <c r="D15" s="7">
-        <v>2</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="9">
-        <v>20</v>
-      </c>
-      <c r="D16" s="7">
-        <v>3</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="7">
-        <v>22</v>
-      </c>
-      <c r="D17" s="7">
-        <v>8</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
+      <c r="C20" s="34">
         <v>25</v>
       </c>
-      <c r="C18" s="7">
-        <v>28</v>
-      </c>
-      <c r="D18" s="7">
-        <v>3</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="7">
-        <v>32</v>
-      </c>
-      <c r="D19" s="7">
-        <v>4</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="7">
-        <v>25</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="D20" s="34">
         <v>13</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8">
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35">
         <v>0</v>
       </c>
     </row>
@@ -1591,7 +1659,7 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AI2:AP2"/>
+    <mergeCell ref="AR2:AY2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -1599,10 +1667,10 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AJ2:AP2"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BO20">
     <cfRule type="expression" dxfId="9" priority="1">
@@ -1640,16 +1708,13 @@
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="16">
+  <dataValidations count="15">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="S2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="Y2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="AD2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="AI2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AQ2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
@@ -1658,7 +1723,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:M2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
